--- a/biology/Histoire de la zoologie et de la botanique/Paul_Schulze_(biologiste)/Paul_Schulze_(biologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Schulze_(biologiste)/Paul_Schulze_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Schulze (né le 20 novembre 1887 et décédé le 13 mai 1949) était un biologiste allemand et recteur de l'Université de Rostock de 1932 à 1936.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(incomplet)
 P. Schulze. "Zur vergleichenden Anatomie der Zecken". Zeitschrift für Morphologie und Ökologie der Tiere 1935 (May) ; 30 (1) : 1–40. Preview</t>
